--- a/Demo/需求包清单.xlsx
+++ b/Demo/需求包清单.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pm-methods\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A301CF-5047-40C7-8A23-1E6227E6251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9475BF2F-7B3E-4B68-87DA-866461175332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="知识管理-竞品分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,6 +240,166 @@
   </si>
   <si>
     <t>基础版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴答清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注计时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入任务描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化为日程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化为笔记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音转文字输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份切换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速25分钟倒计时/正计时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置常用专注计时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄时钟设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯打卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块拓展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义习惯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观/声音/通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他通用设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目标对应的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务打卡统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务打卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图模式切换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日任务列表显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务跳过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以日/周/月/年为周期的分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,13 +505,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,13 +852,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6449FE13-0515-4440-ADF2-062064CA827D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.08203125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="12.08203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="38.58203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
@@ -702,42 +866,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -750,8 +914,8 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
@@ -762,8 +926,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -774,8 +938,8 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -786,8 +950,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -800,8 +964,8 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -812,8 +976,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -824,8 +988,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -836,8 +1000,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,8 +1012,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -862,8 +1026,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -874,8 +1038,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -886,10 +1050,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -902,8 +1066,8 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
@@ -914,8 +1078,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -926,8 +1090,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -940,8 +1104,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
@@ -952,8 +1116,8 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
@@ -964,10 +1128,10 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -980,8 +1144,8 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
@@ -992,8 +1156,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1004,8 +1168,8 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1018,8 +1182,8 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1030,8 +1194,8 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1042,8 +1206,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1056,8 +1220,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1068,8 +1232,8 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
@@ -1080,8 +1244,8 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1094,8 +1258,8 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1106,8 +1270,8 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1119,6 +1283,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:A20"/>
@@ -1127,12 +1297,263 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2202A96-7D79-4724-86DA-5B72CAE5EF6A}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/需求包清单.xlsx
+++ b/Demo/需求包清单.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pm-methods\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9475BF2F-7B3E-4B68-87DA-866461175332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0547C3F-65D7-4786-B968-D3986859142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="知识管理-竞品分析" sheetId="2" r:id="rId2"/>
+    <sheet name="功能模块" sheetId="1" r:id="rId1"/>
+    <sheet name="知识管理-滴答-竞品分析" sheetId="2" r:id="rId2"/>
+    <sheet name="知识管理-目标地图-竞品分析" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -400,6 +401,46 @@
   </si>
   <si>
     <t>以日/周/月/年为周期的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据重要/紧急情况建立任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建/删除日期提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑日期/类型/提醒时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据关键词搜索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,15 +489,21 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -479,13 +526,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,11 +603,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6449FE13-0515-4440-ADF2-062064CA827D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -866,16 +995,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -898,10 +1027,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -914,8 +1043,8 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
@@ -926,8 +1055,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -938,8 +1067,8 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -950,8 +1079,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -964,8 +1093,8 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -976,8 +1105,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -988,8 +1117,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1000,8 +1129,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1012,8 +1141,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1026,8 +1155,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1038,8 +1167,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1050,10 +1179,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1066,8 +1195,8 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1078,8 +1207,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1090,8 +1219,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1104,8 +1233,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1116,8 +1245,8 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1128,10 +1257,10 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1144,8 +1273,8 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1156,8 +1285,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1168,8 +1297,8 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1182,8 +1311,8 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1194,8 +1323,8 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1206,8 +1335,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1220,8 +1349,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1232,8 +1361,8 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
@@ -1244,8 +1373,8 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1258,8 +1387,8 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1270,8 +1399,8 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1305,255 +1434,351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2202A96-7D79-4724-86DA-5B72CAE5EF6A}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904EA740-9F3B-499B-B12B-A17BE5ED15A6}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>12</v>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/需求包清单.xlsx
+++ b/Demo/需求包清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pm-methods\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0547C3F-65D7-4786-B968-D3986859142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAABCB9A-4B8A-4A15-A888-1B8AF4A3289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,18 +68,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>知识学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>知识输入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>知识处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>互动学习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,6 +433,14 @@
   </si>
   <si>
     <t>根据关键词搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -572,13 +572,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +692,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6449FE13-0515-4440-ADF2-062064CA827D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -994,12 +1060,12 @@
     <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -1027,405 +1093,408 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16" t="s">
-        <v>9</v>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>13</v>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
-        <v>14</v>
+      <c r="A18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
-        <v>34</v>
+      <c r="A24" s="23"/>
+      <c r="B24" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="s">
-        <v>35</v>
+      <c r="A27" s="23"/>
+      <c r="B27" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+    <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
-        <v>36</v>
+      <c r="A30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="F30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B11"/>
+  <mergeCells count="15">
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A29"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A32"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B11"/>
     <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1449,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -1458,191 +1527,191 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -1684,93 +1753,93 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/需求包清单.xlsx
+++ b/Demo/需求包清单.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pm-methods\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAABCB9A-4B8A-4A15-A888-1B8AF4A3289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C601A177-11C5-4AE2-AE49-A18FA2817274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6FB3CDD8-15EC-41A0-8D2E-7B401B0BB4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
-    <sheet name="知识管理-滴答-竞品分析" sheetId="2" r:id="rId2"/>
-    <sheet name="知识管理-目标地图-竞品分析" sheetId="3" r:id="rId3"/>
+    <sheet name="记忆卡片-记乎-竞品分析" sheetId="4" r:id="rId2"/>
+    <sheet name="数据结构" sheetId="6" r:id="rId3"/>
+    <sheet name="算法" sheetId="7" r:id="rId4"/>
+    <sheet name="时间管理-竞品对比" sheetId="5" r:id="rId5"/>
+    <sheet name="时间管理-滴答-竞品分析" sheetId="2" r:id="rId6"/>
+    <sheet name="时间管理-目标地图-竞品分析" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="225">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>知识输入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>互动学习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支持AI提炼要点，能抽取专业核心要点，并以条目化形式输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>支持将语音类资料输入，转写成文本，并与核心知识点匹配</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,14 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支持小组背诵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持学习社区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>支持根据艾宾浩斯记忆曲线，自动形成复习计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>滴答清单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -436,11 +420,513 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>知识点提取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>知识点管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务（目标）管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义任务专注计时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建子任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌分类/模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听卡牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览知识点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试卡牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日学习任务统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏卡牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方卡牌（知识点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费购买专业卡牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒/声音设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私及权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anji记忆卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记乎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加/删除/修改卡牌（知识点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加/删除笔记（助记）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入/导出记忆库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆班级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆数据统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组团记忆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI助学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持AI提炼要点，能抽取专业核心要点，并以条目化形式输出（精度持续优化）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">时间管理APP功能梳理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="3" tint="0.749992370372631"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标蓝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为可借鉴功能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">记忆卡片APP功能梳理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="3" tint="0.749992370372631"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标蓝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为可借鉴功能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>约束</t>
+  </si>
+  <si>
+    <t>知识点ID</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>唯一标识符</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>关联用户</t>
+  </si>
+  <si>
+    <t>外键</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>知识点标题</t>
+  </si>
+  <si>
+    <t>必填，最大100字符</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>知识点详细内容</t>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>知识点类别</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <t>系统自动生成</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+  </si>
+  <si>
+    <t>系统自动更新</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度ID</t>
+  </si>
+  <si>
+    <t>关联知识点</t>
+  </si>
+  <si>
+    <t>当前阶段</t>
+  </si>
+  <si>
+    <t>记忆阶段索引</t>
+  </si>
+  <si>
+    <t>下次复习时间</t>
+  </si>
+  <si>
+    <t>计划复习时间</t>
+  </si>
+  <si>
+    <t>基于算法计算</t>
+  </si>
+  <si>
+    <t>上次复习时间</t>
+  </si>
+  <si>
+    <t>最近复习时间</t>
+  </si>
+  <si>
+    <t>系统更新</t>
+  </si>
+  <si>
+    <t>复习总次数</t>
+  </si>
+  <si>
+    <t>累计复习次数</t>
+  </si>
+  <si>
+    <t>默认0</t>
+  </si>
+  <si>
+    <t>连续记住次数</t>
+  </si>
+  <si>
+    <t>连续"记住"次数</t>
+  </si>
+  <si>
+    <t>忘记次数</t>
+  </si>
+  <si>
+    <t>累计忘记次数</t>
+  </si>
+  <si>
+    <t>间隔天数</t>
+  </si>
+  <si>
+    <t>当前间隔天数</t>
+  </si>
+  <si>
+    <t>基于算法</t>
+  </si>
+  <si>
+    <t>暂停状态</t>
+  </si>
+  <si>
+    <t>布尔值</t>
+  </si>
+  <si>
+    <t>是否暂停复习</t>
+  </si>
+  <si>
+    <t>默认false</t>
+  </si>
+  <si>
+    <t>系统生成</t>
+  </si>
+  <si>
+    <t>默认4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联知识点创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=新建，递增，最大为4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录ID</t>
+  </si>
+  <si>
+    <t>复习结果</t>
+  </si>
+  <si>
+    <t>记住/模糊/忘记</t>
+  </si>
+  <si>
+    <t>复习时间</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>会话ID</t>
+  </si>
+  <si>
+    <t>关联复习会话</t>
+  </si>
+  <si>
+    <t>复习类型</t>
+  </si>
+  <si>
+    <t>新学/复习/重学</t>
+  </si>
+  <si>
+    <t>系统判断</t>
+  </si>
+  <si>
+    <t>复习记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划时间</t>
+  </si>
+  <si>
+    <t>默认：待复习</t>
+  </si>
+  <si>
+    <t>复习计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标识</t>
+  </si>
+  <si>
+    <t>每日目标</t>
+  </si>
+  <si>
+    <t>每日复习目标数量</t>
+  </si>
+  <si>
+    <t>间隔预设</t>
+  </si>
+  <si>
+    <t>整数数组</t>
+  </si>
+  <si>
+    <t>复习间隔天数</t>
+  </si>
+  <si>
+    <t>默认[1,3,5,7,14,30]</t>
+  </si>
+  <si>
+    <t>自动排期</t>
+  </si>
+  <si>
+    <t>是否自动生成计划</t>
+  </si>
+  <si>
+    <t>默认true</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>时间字符串</t>
+  </si>
+  <si>
+    <t>每日提醒时间</t>
+  </si>
+  <si>
+    <t>格式"HH:MM"</t>
+  </si>
+  <si>
+    <t>复习设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待复习/已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础版本
+MVP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,8 +974,45 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="3" tint="0.749992370372631"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F1115"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +1022,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,9 +1210,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,22 +1264,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6449FE13-0515-4440-ADF2-062064CA827D}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1061,18 +1644,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1665,8 @@
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
+      <c r="D2" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -1093,408 +1676,383 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>7</v>
+      <c r="A3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22" t="s">
-        <v>99</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22" t="s">
-        <v>12</v>
+      <c r="A15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22" t="s">
-        <v>33</v>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="22" t="s">
-        <v>34</v>
+      <c r="A27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+        <v>125</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="E30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A26"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A29"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,11 +2060,1265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1585E5-445F-48BC-A0C7-AE798408F261}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA72C73-466B-426C-81F1-EDFE02268992}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A39"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7CC91-510A-437A-B7B1-6247AF73C320}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB742A9-27CE-4935-828C-76851436E26D}">
+  <dimension ref="B1:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="12" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34"/>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34"/>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+      <c r="C21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29"/>
+      <c r="C29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29"/>
+      <c r="C30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2202A96-7D79-4724-86DA-5B72CAE5EF6A}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1517,201 +3329,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4" t="s">
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="4" t="s">
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="4" t="s">
+    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>94</v>
+      <c r="A24" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>10</v>
+      <c r="A27" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1729,12 +3541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904EA740-9F3B-499B-B12B-A17BE5ED15A6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1743,103 +3555,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>9</v>
+      <c r="A3" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="10" t="s">
+    <row r="9" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="10" t="s">
+    <row r="11" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>10</v>
+      <c r="A13" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
